--- a/文件列表对比.xlsx
+++ b/文件列表对比.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
-  <si>
-    <t>.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+  <si>
+    <t>simimages/&lt;sample&gt;</t>
+  </si>
+  <si>
+    <t>sewfactory/&lt;sample&gt;</t>
   </si>
   <si>
     <t>├── 0000_0_30.png</t>
@@ -1798,7 +1801,7 @@
   <dimension ref="A2:B161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1811,946 +1814,946 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
